--- a/advanced_vision/misc/position_encoding.xlsx
+++ b/advanced_vision/misc/position_encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ueda/GIT/slides_marp/advanced_vision/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77C14D0-EBCE-D940-88E4-FBEB189F99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62734A-A843-DE46-8C26-42680464EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="1460" windowWidth="38400" windowHeight="19400" xr2:uid="{6773948F-5FD1-F446-BD98-9D741AB57698}"/>
+    <workbookView xWindow="1980" yWindow="10660" windowWidth="38400" windowHeight="19400" xr2:uid="{6773948F-5FD1-F446-BD98-9D741AB57698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -460,24 +460,24 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>SIN(A2*(POWER($B$7,-2*B$1/5)))</f>
+        <f>SIN($A2*(POWER($B$7,-2*B$1/5)))</f>
         <v>0.8414709848078965</v>
       </c>
       <c r="C2">
-        <f>COS(B2*(POWER($B$7,-2*(C$1-1)/5)))</f>
-        <v>0.66636674539288054</v>
+        <f>COS($A2*(POWER($B$7,-2*(C$1-1)/5)))</f>
+        <v>0.54030230586813977</v>
       </c>
       <c r="D2">
-        <f>SIN(C2*(POWER($B$7,-2*D$1/5)))</f>
-        <v>0.10541579039140768</v>
+        <f>SIN($A2*(POWER($B$7,-2*D$1/5)))</f>
+        <v>0.15782664013030581</v>
       </c>
       <c r="E2">
-        <f>COS(D2*(POWER($B$7,-2*(E$1-1)/5)))</f>
-        <v>0.99986043669645308</v>
+        <f>COS($A2*(POWER($B$7,-2*(E$1-1)/5)))</f>
+        <v>0.98746683572927096</v>
       </c>
       <c r="F2">
-        <f>SIN(E2*(POWER($B$7,-2*F$1/5)))</f>
-        <v>2.5112718343840768E-2</v>
+        <f>SIN($A2*(POWER($B$7,-2*F$1/5)))</f>
+        <v>2.511622290977376E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,24 +485,24 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:D5" si="0">SIN(A3*(POWER($B$7,-2*B$1/5)))</f>
+        <f t="shared" ref="B3:F5" si="0">SIN($A3*(POWER($B$7,-2*B$1/5)))</f>
         <v>0.90929742682568171</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:E5" si="1">COS(B3*(POWER($B$7,-2*(C$1-1)/5)))</f>
-        <v>0.61430028211648224</v>
+        <f t="shared" ref="C3:G5" si="1">COS($A3*(POWER($B$7,-2*(C$1-1)/5)))</f>
+        <v>-0.41614683654714241</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>9.7206294169076488E-2</v>
+        <v>0.31169714584651093</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.99988132747370484</v>
+        <v>0.95018150333035789</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G3" si="2">SIN(E3*(POWER($B$7,-2*F$1/5)))</f>
-        <v>2.5113242930943185E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0216599387465179E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -515,19 +515,19 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.99005908575986534</v>
+        <v>-0.98999249660044542</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.15627066251798108</v>
+        <v>0.4577545484994926</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.99969330781422749</v>
+        <v>0.88907860919494952</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:G4" si="3">SIN(E4*(POWER($B$7,-2*F$1/5)))</f>
-        <v>2.5108521579871621E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5285292998888906E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,19 +540,19 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.72703513116881235</v>
+        <v>-0.65364362086361194</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.1149724870489959</v>
+        <v>0.59233772524843908</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.99983398556969749</v>
+        <v>0.80568977854227775</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:G5" si="4">SIN(E5*(POWER($B$7,-2*F$1/5)))</f>
-        <v>2.5112054131112803E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10030648729934569</v>
       </c>
     </row>
     <row r="7" spans="1:6">
